--- a/biology/Botanique/Brelle/Brelle.xlsx
+++ b/biology/Botanique/Brelle/Brelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une brelle (du verbe brêler ou breller, fixer fortement avec des cordages, soit les poutrelles aux bateaux, soit les madriers aux poutrelles[2], brêlage est de même racine), désigne une certaine quantité de bois équarris liés ensemble dont on formait les trains de bois flotté, à destination de la charpenterie. Les brelles sont appelées « coupons » pour les trains de bois à brûler.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une brelle (du verbe brêler ou breller, fixer fortement avec des cordages, soit les poutrelles aux bateaux, soit les madriers aux poutrelles, brêlage est de même racine), désigne une certaine quantité de bois équarris liés ensemble dont on formait les trains de bois flotté, à destination de la charpenterie. Les brelles sont appelées « coupons » pour les trains de bois à brûler.
 Le brelleur était l'ouvrier qui mettait la bois en brelle.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On fait des trains ou radeaux plus ou moins grands, suivant la force des rivières. Ceux de bois équarri à l'usage des charpentiers, se font avec plus de facilité que les trains de bois à brûler ; ce qui est fort commode pour les transporter au loin à peu de frais. Ils sont ordinairement formés de quatre brelles ; ce qu'on appelle coupons dans les trains de bois à brûler. Chaque brelle a communément sept toises et demie de longueur, sur une largeur qui varie suivant le besoin : on tient ces trains étroits quand ils doivent descendre des rivières qui ont peu de largeur et beaucoup de sinuosités, ou quand ils doivent passer par des écluses[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On fait des trains ou radeaux plus ou moins grands, suivant la force des rivières. Ceux de bois équarri à l'usage des charpentiers, se font avec plus de facilité que les trains de bois à brûler ; ce qui est fort commode pour les transporter au loin à peu de frais. Ils sont ordinairement formés de quatre brelles ; ce qu'on appelle coupons dans les trains de bois à brûler. Chaque brelle a communément sept toises et demie de longueur, sur une largeur qui varie suivant le besoin : on tient ces trains étroits quand ils doivent descendre des rivières qui ont peu de largeur et beaucoup de sinuosités, ou quand ils doivent passer par des écluses.
 Néanmoins, suivant l’usage le plus ordinaire, sur les grandes rivières, la largeur des brelles varie depuis quatorze jusqu'à dix-huit ou vingt pieds ; on en fait quelquefois sur les petites rivières qui n’ont que six ou huit pieds de largeur ; mais à l'entrée des grandes rivières, on en réunit plusieurs à côté les unes des autres, pour en former une seule de la largeur susdite. Il n'en coûte pas plus aux marchands de faire conduire un grand train qu'un petit, il est donc de leur intérêt de les faire aussi grands qu'il est possible. On forme plus ou moins de brelles, suivant que les bois sont plus ou moins longs.
 Mais comme toutes les brelles d'un même train ne font pas de la même longueur, on assortit, le mieux qu'il est possible, les pièces qui doivent former une brelle, et on a soin que les deux côtés soient formés par deux fortes pièces qui aient toute la longueur de la brelle : on choisit encore une assez belle pièce qu’on place au milieu pour y mettre les moussières, qui sont deux chevilles enfoncées à la tête de cette pièce, pour retenir les rames dont on se sert pour conduire le train : ces moussières se placent l'une à la tête et l'autre à la queue du train.
 Toutes les pièces qui doivent former une brelle, doivent être placées à côté les unes des autres, et liées sur des travertins nommés pouliers, qui sont des perches de six à sept pouces de grosseur au milieu, et dont la longueur fait la largeur des brelles. On place cinq poulies sur chaque brelle, deux près l'un de l'autre à chaque extrémité, et un dans le milieu. On perce avec une tarière un trou oblique qui commence à la face supérieure d'une pièce, et qui aboutit à une face verticale ; on met dans ce trou une rouette[note 1] qui embrasse les pouliers ; on fait un nœud ou maillon qui serre fortement le poulier contre la pièce ; on fait la même chose à l’autre extrémités de la pièce ; et les cinq pouliers ainsi liés très fermement sur toutes les pièces de bois carré qui forment une brelle, elle se trouve achevée.
